--- a/テーブル例.xlsx
+++ b/テーブル例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/websystem-mac19/Desktop/Webapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E192362-420A-A444-9E90-F5E95D1498E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B15594-8AB9-0D47-B303-7BC885A7B8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2260" windowWidth="28300" windowHeight="17440" activeTab="5" xr2:uid="{A6207927-5ADC-FB48-BC14-E3A4B9A85450}"/>
+    <workbookView xWindow="14080" yWindow="10620" windowWidth="24460" windowHeight="10440" activeTab="1" xr2:uid="{A6207927-5ADC-FB48-BC14-E3A4B9A85450}"/>
   </bookViews>
   <sheets>
     <sheet name="トップスデータ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>商品ID</t>
     <rPh sb="0" eb="2">
@@ -141,13 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>種類ID（int default 1）</t>
-    <rPh sb="0" eb="2">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品ID（int auto incriment primary key）</t>
     <rPh sb="0" eb="2">
       <t>ショウヒn</t>
@@ -163,16 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫有無(char(1) default '1')</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銀</t>
     <rPh sb="0" eb="1">
       <t>ギn</t>
@@ -208,29 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↑Oか１で有無を表します</t>
-    <rPh sb="5" eb="7">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アラワセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑種類別に固定値にしておきます</t>
-    <rPh sb="1" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>t</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品ID(int)</t>
     <rPh sb="0" eb="2">
       <t>ショウヒn</t>
@@ -245,10 +205,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>種類ID(int default 1)</t>
+    <t>有無を表します</t>
     <rPh sb="0" eb="2">
-      <t>シュルイ</t>
-    </rPh>
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アラワセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫有無(char(1) default '有')</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">アリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag()a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int(11) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,14 +608,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -632,10 +631,10 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -651,9 +650,6 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
@@ -668,13 +664,22 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -690,78 +695,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439C45E-6F18-6744-8622-8CE92643471E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -874,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -885,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -951,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1500</v>
@@ -968,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -990,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03587ABF-020F-7843-B259-F63A55159AA9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1023,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>3</v>
